--- a/LiveApp/CampRoster/roster.xlsx
+++ b/LiveApp/CampRoster/roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RisatoMob\Documents\GitHub\risato.github.io\LiveApp\CampRoster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0B819-5D7E-4716-90D9-1D9CB3F90E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B3B8B0-32B8-4F9A-8E88-3681C9D051DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23055" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8243,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2004" workbookViewId="0">
-      <selection activeCell="L2013" sqref="L2013"/>
+    <sheetView tabSelected="1" topLeftCell="A2024" workbookViewId="0">
+      <selection activeCell="E2057" sqref="E2057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40078,7 +40078,7 @@
         <v>2015</v>
       </c>
       <c r="D1987" s="1" t="str">
-        <f t="shared" ref="D1987:D2045" si="31">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C1987&amp;""</f>
+        <f t="shared" ref="D1987:D2044" si="31">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C1987&amp;""</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/2015</v>
       </c>
       <c r="E1987" s="5"/>

--- a/LiveApp/CampRoster/roster.xlsx
+++ b/LiveApp/CampRoster/roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RisatoMob\Documents\GitHub\risato.github.io\LiveApp\CampRoster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B3B8B0-32B8-4F9A-8E88-3681C9D051DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999C4C4-7695-4F7E-9334-202656711411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23055" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="2462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="2586">
   <si>
     <t>Firstname</t>
   </si>
@@ -7414,6 +7414,378 @@
   </si>
   <si>
     <t>Hedges</t>
+  </si>
+  <si>
+    <t>Zhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jiarui</t>
+  </si>
+  <si>
+    <t>Yong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerie</t>
+  </si>
+  <si>
+    <t>Vandrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giselle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adam</t>
+  </si>
+  <si>
+    <t>Tarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kelly</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abigail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daniel</t>
+  </si>
+  <si>
+    <t>Rutherford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kea</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xeena</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISABEL XILONEN</t>
+  </si>
+  <si>
+    <t>Northrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hudson</t>
+  </si>
+  <si>
+    <t>Mirghavameddin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sama</t>
+  </si>
+  <si>
+    <t>Margolies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michelle</t>
+  </si>
+  <si>
+    <t>Macdonald</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kathryn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hannah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yu Guan</t>
+  </si>
+  <si>
+    <t>Lelieur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ross</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samantha</t>
+  </si>
+  <si>
+    <t>Kelkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saumitra</t>
+  </si>
+  <si>
+    <t>Jougla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jac</t>
+  </si>
+  <si>
+    <t>Jahangard-Mahboob</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nasim</t>
+  </si>
+  <si>
+    <t>Jaffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melissa</t>
+  </si>
+  <si>
+    <t>Hutchins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bryce</t>
+  </si>
+  <si>
+    <t>Fulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brian</t>
+  </si>
+  <si>
+    <t>Formaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ned</t>
+  </si>
+  <si>
+    <t>Filar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Katherine</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grace</t>
+  </si>
+  <si>
+    <t>Feinberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dan</t>
+  </si>
+  <si>
+    <t>Feder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> David</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest</t>
+  </si>
+  <si>
+    <t>de Lorimier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phillip</t>
+  </si>
+  <si>
+    <t>Chaboya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alexandra</t>
+  </si>
+  <si>
+    <t>Callaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heather</t>
+  </si>
+  <si>
+    <t>Bloem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan</t>
+  </si>
+  <si>
+    <t>Antunez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emily</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spencer</t>
+  </si>
+  <si>
+    <t>Wyrsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jack</t>
+  </si>
+  <si>
+    <t>Walderich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leonie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scott</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stanley</t>
+  </si>
+  <si>
+    <t>Sawicky</t>
+  </si>
+  <si>
+    <t>SALMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natalia</t>
+  </si>
+  <si>
+    <t>Pechurina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dasha</t>
+  </si>
+  <si>
+    <t>Pastor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dylan</t>
+  </si>
+  <si>
+    <t>Nayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chellam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Julia</t>
+  </si>
+  <si>
+    <t>Mccue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matthew</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madeleine</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HANNAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ezra</t>
+  </si>
+  <si>
+    <t>Higelin</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Claudia</t>
+  </si>
+  <si>
+    <t>Harmon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ginger</t>
+  </si>
+  <si>
+    <t>Haeberle</t>
+  </si>
+  <si>
+    <t>Garrison</t>
+  </si>
+  <si>
+    <t>Fraysse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabeth</t>
+  </si>
+  <si>
+    <t>Foulke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chelsea</t>
+  </si>
+  <si>
+    <t>Edinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jacqueline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elliot</t>
+  </si>
+  <si>
+    <t>Cuervo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ximena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jamie</t>
+  </si>
+  <si>
+    <t>Chae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sangyeon</t>
+  </si>
+  <si>
+    <t>Camacho Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barbara</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maya</t>
+  </si>
+  <si>
+    <t>Benshalom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marley</t>
   </si>
 </sst>
 </file>
@@ -8241,10 +8613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2046"/>
+  <dimension ref="A1:E2122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2024" workbookViewId="0">
-      <selection activeCell="E2057" sqref="E2057"/>
+    <sheetView tabSelected="1" topLeftCell="A2103" workbookViewId="0">
+      <selection activeCell="K2129" sqref="K2129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40078,7 +40450,7 @@
         <v>2015</v>
       </c>
       <c r="D1987" s="1" t="str">
-        <f t="shared" ref="D1987:D2044" si="31">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C1987&amp;""</f>
+        <f t="shared" ref="D1987:D2050" si="31">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C1987&amp;""</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/2015</v>
       </c>
       <c r="E1987" s="5"/>
@@ -40960,14 +41332,1175 @@
       </c>
     </row>
     <row r="2045" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2045" s="1"/>
-      <c r="B2045" s="1"/>
-      <c r="C2045" s="1"/>
-      <c r="D2045" s="1"/>
+      <c r="A2045" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2045">
+        <v>2018</v>
+      </c>
+      <c r="D2045" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
       <c r="E2045" s="5"/>
     </row>
     <row r="2046" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2046" s="2"/>
+      <c r="A2046" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C2046">
+        <v>2018</v>
+      </c>
+      <c r="D2046" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C2047">
+        <v>2018</v>
+      </c>
+      <c r="D2047" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C2048">
+        <v>2018</v>
+      </c>
+      <c r="D2048" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2049">
+        <v>2018</v>
+      </c>
+      <c r="D2049" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C2050">
+        <v>2018</v>
+      </c>
+      <c r="D2050" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2051" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C2051">
+        <v>2018</v>
+      </c>
+      <c r="D2051" s="1" t="str">
+        <f t="shared" ref="D2051:D2114" si="32">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C2051&amp;""</f>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2052">
+        <v>2018</v>
+      </c>
+      <c r="D2052" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C2053">
+        <v>2018</v>
+      </c>
+      <c r="D2053" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C2054">
+        <v>2018</v>
+      </c>
+      <c r="D2054" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C2055">
+        <v>2018</v>
+      </c>
+      <c r="D2055" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C2056">
+        <v>2018</v>
+      </c>
+      <c r="D2056" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C2057">
+        <v>2018</v>
+      </c>
+      <c r="D2057" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C2058">
+        <v>2018</v>
+      </c>
+      <c r="D2058" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C2059">
+        <v>2018</v>
+      </c>
+      <c r="D2059" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2060">
+        <v>2018</v>
+      </c>
+      <c r="D2060" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C2061">
+        <v>2018</v>
+      </c>
+      <c r="D2061" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C2062">
+        <v>2018</v>
+      </c>
+      <c r="D2062" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C2063">
+        <v>2018</v>
+      </c>
+      <c r="D2063" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2064" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C2064">
+        <v>2018</v>
+      </c>
+      <c r="D2064" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2065" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C2065">
+        <v>2018</v>
+      </c>
+      <c r="D2065" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2066" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C2066">
+        <v>2018</v>
+      </c>
+      <c r="D2066" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2067" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C2067">
+        <v>2018</v>
+      </c>
+      <c r="D2067" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2068" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C2068">
+        <v>2018</v>
+      </c>
+      <c r="D2068" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2069" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C2069">
+        <v>2018</v>
+      </c>
+      <c r="D2069" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2070" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C2070">
+        <v>2018</v>
+      </c>
+      <c r="D2070" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2071" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C2071">
+        <v>2018</v>
+      </c>
+      <c r="D2071" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C2072">
+        <v>2018</v>
+      </c>
+      <c r="D2072" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C2073">
+        <v>2018</v>
+      </c>
+      <c r="D2073" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C2074">
+        <v>2018</v>
+      </c>
+      <c r="D2074" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C2075">
+        <v>2018</v>
+      </c>
+      <c r="D2075" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2076">
+        <v>2018</v>
+      </c>
+      <c r="D2076" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C2077">
+        <v>2018</v>
+      </c>
+      <c r="D2077" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C2078">
+        <v>2018</v>
+      </c>
+      <c r="D2078" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C2079">
+        <v>2018</v>
+      </c>
+      <c r="D2079" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C2080">
+        <v>2018</v>
+      </c>
+      <c r="D2080" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C2081">
+        <v>2018</v>
+      </c>
+      <c r="D2081" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C2082">
+        <v>2018</v>
+      </c>
+      <c r="D2082" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C2083">
+        <v>2018</v>
+      </c>
+      <c r="D2083" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C2084">
+        <v>2018</v>
+      </c>
+      <c r="D2084" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C2085">
+        <v>2018</v>
+      </c>
+      <c r="D2085" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2086" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C2086">
+        <v>2018</v>
+      </c>
+      <c r="D2086" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2018</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2087" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2087">
+        <v>2017</v>
+      </c>
+      <c r="D2087" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2088" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2088">
+        <v>2017</v>
+      </c>
+      <c r="D2088" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2089" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2089">
+        <v>2017</v>
+      </c>
+      <c r="D2089" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2090" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C2090">
+        <v>2017</v>
+      </c>
+      <c r="D2090" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2091" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2091">
+        <v>2017</v>
+      </c>
+      <c r="D2091" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2092" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2092">
+        <v>2017</v>
+      </c>
+      <c r="D2092" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2093" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C2093">
+        <v>2017</v>
+      </c>
+      <c r="D2093" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2094" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2094">
+        <v>2017</v>
+      </c>
+      <c r="D2094" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2095" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C2095">
+        <v>2017</v>
+      </c>
+      <c r="D2095" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2096" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C2096">
+        <v>2017</v>
+      </c>
+      <c r="D2096" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2097" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C2097">
+        <v>2017</v>
+      </c>
+      <c r="D2097" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2098" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C2098">
+        <v>2017</v>
+      </c>
+      <c r="D2098" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C2099">
+        <v>2017</v>
+      </c>
+      <c r="D2099" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2100" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2100">
+        <v>2017</v>
+      </c>
+      <c r="D2100" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C2101">
+        <v>2017</v>
+      </c>
+      <c r="D2101" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C2102">
+        <v>2017</v>
+      </c>
+      <c r="D2102" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C2103">
+        <v>2017</v>
+      </c>
+      <c r="D2103" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>866</v>
+      </c>
+      <c r="C2104">
+        <v>2017</v>
+      </c>
+      <c r="D2104" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C2105">
+        <v>2017</v>
+      </c>
+      <c r="D2105" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2106">
+        <v>2017</v>
+      </c>
+      <c r="D2106" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2107" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2107">
+        <v>2017</v>
+      </c>
+      <c r="D2107" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2108" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2108">
+        <v>2017</v>
+      </c>
+      <c r="D2108" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2109" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C2109">
+        <v>2017</v>
+      </c>
+      <c r="D2109" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2110" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C2110">
+        <v>2017</v>
+      </c>
+      <c r="D2110" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2111" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C2111">
+        <v>2017</v>
+      </c>
+      <c r="D2111" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2112" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C2112">
+        <v>2017</v>
+      </c>
+      <c r="D2112" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2113" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C2113">
+        <v>2017</v>
+      </c>
+      <c r="D2113" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2114" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C2114">
+        <v>2017</v>
+      </c>
+      <c r="D2114" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2115" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C2115">
+        <v>2017</v>
+      </c>
+      <c r="D2115" s="1" t="str">
+        <f t="shared" ref="D2115:D2122" si="33">"https://forestrycamp.berkeley.edu/portfolio/"&amp;C2115&amp;""</f>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2116" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C2116">
+        <v>2017</v>
+      </c>
+      <c r="D2116" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2117" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C2117">
+        <v>2017</v>
+      </c>
+      <c r="D2117" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2118" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C2118">
+        <v>2017</v>
+      </c>
+      <c r="D2118" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2119" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C2119">
+        <v>2017</v>
+      </c>
+      <c r="D2119" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2120" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C2120">
+        <v>2017</v>
+      </c>
+      <c r="D2120" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2121" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C2121">
+        <v>2017</v>
+      </c>
+      <c r="D2121" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C2122">
+        <v>2017</v>
+      </c>
+      <c r="D2122" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2017</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:E2045">

--- a/LiveApp/CampRoster/roster.xlsx
+++ b/LiveApp/CampRoster/roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RisatoMob\Documents\GitHub\risato.github.io\LiveApp\CampRoster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD43F3E9-90E5-4C18-B1F6-2CCB48C72B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184D6501-59CA-4E5D-91D9-BBFEBE9B6680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">roster!$I$22:$I$79</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7922" uniqueCount="4780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="4782">
   <si>
     <t>Firstname</t>
   </si>
@@ -14372,6 +14364,12 @@
   </si>
   <si>
     <t>Lloyd S.</t>
+  </si>
+  <si>
+    <t>Pundamiera</t>
+  </si>
+  <si>
+    <t>MacMillan</t>
   </si>
 </sst>
 </file>
@@ -15226,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1778" sqref="D1778"/>
+    <sheetView tabSelected="1" topLeftCell="A1675" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1676" sqref="D1676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15268,7 +15266,7 @@
         <v>1915</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f t="shared" ref="D2:D65" si="0">IF(C2="unlisted",E2, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C2&amp;"")</f>
+        <f t="shared" ref="D2:D48" si="0">IF(C2="unlisted",E2, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C2&amp;"")</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/1915</v>
       </c>
       <c r="E2" s="2"/>
@@ -16427,7 +16425,7 @@
         <v>1929</v>
       </c>
       <c r="D87" s="6" t="str">
-        <f t="shared" ref="D66:D129" si="1">IF(C87="unlisted",E87, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C87&amp;"")</f>
+        <f t="shared" ref="D87:D100" si="1">IF(C87="unlisted",E87, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C87&amp;"")</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/1929</v>
       </c>
       <c r="E87" s="2"/>
@@ -34341,7 +34339,7 @@
         <v>1959</v>
       </c>
       <c r="D1461" s="6" t="str">
-        <f t="shared" ref="D1410:D1473" si="2">IF(C1461="unlisted",E1461, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1461&amp;"")</f>
+        <f t="shared" ref="D1461:D1473" si="2">IF(C1461="unlisted",E1461, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1461&amp;"")</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/1959</v>
       </c>
       <c r="E1461" s="2"/>
@@ -34549,7 +34547,7 @@
         <v>1959</v>
       </c>
       <c r="D1474" s="6" t="str">
-        <f t="shared" ref="D1474:D1537" si="3">IF(C1474="unlisted",E1474, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1474&amp;"")</f>
+        <f t="shared" ref="D1474:D1495" si="3">IF(C1474="unlisted",E1474, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1474&amp;"")</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/1959</v>
       </c>
       <c r="E1474" s="2"/>
@@ -36331,7 +36329,7 @@
         <v>1963</v>
       </c>
       <c r="D1606" s="6" t="str">
-        <f t="shared" ref="D1602:D1665" si="4">IF(C1606="unlisted",E1606, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1606&amp;"")</f>
+        <f t="shared" ref="D1606:D1644" si="4">IF(C1606="unlisted",E1606, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C1606&amp;"")</f>
         <v>https://forestrycamp.berkeley.edu/portfolio/1963</v>
       </c>
       <c r="E1606" s="2"/>
@@ -71193,7 +71191,7 @@
         <v>2632</v>
       </c>
       <c r="D3915" s="6">
-        <f t="shared" ref="D3915:D3978" si="40">IF(C3915="unlisted",E3915, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C3915&amp;"")</f>
+        <f t="shared" ref="D3915:D3931" si="40">IF(C3915="unlisted",E3915, "https://forestrycamp.berkeley.edu/portfolio/"&amp;C3915&amp;"")</f>
         <v>1939</v>
       </c>
       <c r="E3915" s="10">
@@ -71453,16 +71451,35 @@
       </c>
     </row>
     <row r="3930" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3930" s="1"/>
-      <c r="B3930" s="1"/>
-      <c r="C3930" s="1"/>
-      <c r="D3930" s="1"/>
+      <c r="A3930" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3930" s="1" t="s">
+        <v>4780</v>
+      </c>
+      <c r="C3930" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D3930" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2020</v>
+      </c>
       <c r="E3930" s="1"/>
     </row>
     <row r="3931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3931" s="10"/>
-      <c r="B3931" s="10"/>
-      <c r="D3931" s="6"/>
+      <c r="A3931" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B3931" s="10" t="s">
+        <v>4781</v>
+      </c>
+      <c r="C3931" s="7">
+        <v>2020</v>
+      </c>
+      <c r="D3931" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>https://forestrycamp.berkeley.edu/portfolio/2020</v>
+      </c>
       <c r="E3931" s="10"/>
     </row>
     <row r="3997" spans="1:5" x14ac:dyDescent="0.2">
